--- a/biology/Écologie/Phytosociologie/Phytosociologie.xlsx
+++ b/biology/Écologie/Phytosociologie/Phytosociologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La phytosociologie est la discipline botanique qui étudie les communautés végétales et leur relation avec le milieu, en se basant sur des listes floristiques les plus exhaustives possibles. Elle est l'une des branches de la géobotanique, laquelle peut s'appuyer sur d'autres types d'approches (physionomiques, climatiques, écomorphologiques, agricoles, sylvicoles, etc.)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phytosociologie est la discipline botanique qui étudie les communautés végétales et leur relation avec le milieu, en se basant sur des listes floristiques les plus exhaustives possibles. Elle est l'une des branches de la géobotanique, laquelle peut s'appuyer sur d'autres types d'approches (physionomiques, climatiques, écomorphologiques, agricoles, sylvicoles, etc.).
 Son objet est l'étude synthétique des communautés de végétaux spontanées, pour les définir et les classer selon des critères floristiques et statistiques, caractériser leur structure et leur organisation, leur origine, leur genèse, leur déterminisme et leur évolution ainsi que leurs habitats. L'analyse comparative des groupements végétaux permet de définir des catégories abstraites ; par exemple des associations végétales et des phytotypes.
 Pour décrire les relations spatio-temporelles entre végétaux, la phytosociologie s'intéresse aussi au fonctionnement écologique et botanique des végétations, à différentes échelles (des synusies aux biomes zonaux), c'est-à-dire aux relations des plantes entre elles et avec leur milieu de vie (climat, sol), ainsi que leur répartition géographique. Ses méthodes et concepts sont transposables à tous les types d'organismes.
-Bien qu'elle soit une discipline écologique et géographique à part entière permettant de caractériser un milieu ainsi que son histoire, la phytosociologie a souffert d’un certain désintérêt de la part des scientifiques vers la fin du XXe siècle, probablement parce qu’elle s’est alors plus tournée vers les aspects descriptifs et nomenclaturaux, délaissant ainsi l’aspect synécologique[2]. Actuellement, les unités fondamentales de la phytosociologie représentant une forte valeur indicatrice et un potentiel significatif
-pour la modélisation environnementale sont reconnues, d'où le regain d'intérêt scientifique pour cette science, notamment grâce à la démarche Natura 2000 et au développement de la phytosociologie dynamico-caténale qui permet de décrire plus finement les trajectoires dynamiques des séries de végétation[3].
+Bien qu'elle soit une discipline écologique et géographique à part entière permettant de caractériser un milieu ainsi que son histoire, la phytosociologie a souffert d’un certain désintérêt de la part des scientifiques vers la fin du XXe siècle, probablement parce qu’elle s’est alors plus tournée vers les aspects descriptifs et nomenclaturaux, délaissant ainsi l’aspect synécologique. Actuellement, les unités fondamentales de la phytosociologie représentant une forte valeur indicatrice et un potentiel significatif
+pour la modélisation environnementale sont reconnues, d'où le regain d'intérêt scientifique pour cette science, notamment grâce à la démarche Natura 2000 et au développement de la phytosociologie dynamico-caténale qui permet de décrire plus finement les trajectoires dynamiques des séries de végétation.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Principes et vocabulaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour le phytosociologue, les populations végétales de différentes espèces qui utilisent un même habitat naturel, ou biotope, constituent des synusies, des phytocœnoses, des teselas, catenas, etc., dont la phytosociologie cherche à décrire les compositions floristiques, l'« architecture » mais aussi le fonctionnement dynamique et écologique.
 </t>
@@ -546,9 +560,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme de "phytosociologie" est inventé en 1896 par le botaniste polonais Józef Paczoski, matière qu'il avait précédemment nommée "florologie" en 1891[4]. Constatant que les espèces végétales ne se répartissent pas au hasard et que l'on retrouve souvent les mêmes espèces cohabitant dans des mêmes milieux, les précurseurs de la phytosociologie, tel Henri Lecoq, Charles Flahault, Émile Chateau (1866-1952), ont défini des associations végétales comme unités floristico-physionomiques fondamentales de la couverture végétale. Le concept floristique de la végétation s'est ensuite substitué au concept physionomique (basé sur les types biologiques), tel qu'instauré par les premiers phytogéographes : Alexander von Humboldt &amp; Aimé Bonpland (1807), Grisebach (1838, 1872), Eugen Warming (1909), etc[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme de "phytosociologie" est inventé en 1896 par le botaniste polonais Józef Paczoski, matière qu'il avait précédemment nommée "florologie" en 1891. Constatant que les espèces végétales ne se répartissent pas au hasard et que l'on retrouve souvent les mêmes espèces cohabitant dans des mêmes milieux, les précurseurs de la phytosociologie, tel Henri Lecoq, Charles Flahault, Émile Chateau (1866-1952), ont défini des associations végétales comme unités floristico-physionomiques fondamentales de la couverture végétale. Le concept floristique de la végétation s'est ensuite substitué au concept physionomique (basé sur les types biologiques), tel qu'instauré par les premiers phytogéographes : Alexander von Humboldt &amp; Aimé Bonpland (1807), Grisebach (1838, 1872), Eugen Warming (1909), etc.
 Frederic Edward Clements (1874-1945) utilisa le terme « biome » pour la première fois dans une publication en 1916.
 D'autres phytosociologues, comme Josias Braun-Blanquet (1884-1980), Erich Oberdorfer ou Reinhold Tüxen ont progressivement construit un système de classification hiérarchisé, analogue à celui établi pour les espèces, prenant pour base l'association végétale considérée comme représentée sur le terrain par des « individus d'association ».
 Ce système a constitué un socle théorique pour le développement d'outils pratiques de connaissance écologique. Il a facilité la compréhension des affinités des communautés végétales entre elles et avec les milieux (naturels ou artificialisés).
@@ -582,7 +598,9 @@
           <t>Les écoles de phytosociologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L’école suédoise des sociations (HULT 1881, SERNANDER, Uppsala : DU RIETZ 1920, 1930, 1954), encore utilisée de nos jours en Fennoscandie.
 L’école anglaise de la dominance (SMITH 1898, 1899, CHIPP 1927, TANSLEY 1946).
@@ -627,9 +645,11 @@
           <t>Phytosociologie systématique floristique - sociologie des plantes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La phytosociologie existe parce que les plantes, comme tout organisme vivant, ne vivent pas de manière isolée ; les espèces végétales vivent associées entre elles (et avec des animaux, des champignons, des protistes, des bactéries…), et elles modifient leur milieu selon plusieurs aspects et facteurs écologiques :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phytosociologie existe parce que les plantes, comme tout organisme vivant, ne vivent pas de manière isolée ; les espèces végétales vivent associées entre elles (et avec des animaux, des champignons, des protistes, des bactéries…), et elles modifient leur milieu selon plusieurs aspects et facteurs écologiques :
 un aspect dit statique, réunissant les paramètres abiotiques du milieu (lumière, chaleur, humidité…).
 un aspect dit de succession, où les écosystèmes (structurés par des groupements végétaux) se succèdent en stades différents pour parvenir à un climax homéostatique.
 un aspect d'interactions, qui tient compte des nombreuses relations entre espèces : interactions biotiques (prédation, parasitisme, coopération, mutualisme, symbiose, compétition…), interactions abiotiques (ombrage, intoxication, fertilisation…).
@@ -641,8 +661,43 @@
 sociabilité : distribution des individus de chaque espèce présente sur l'ensemble de l'échantillon de terrain – sont-elles régulièrement dispersées, ou apparaissent-elles selon un « motif » de répartition particulier ?
 Le second critère est de moins en moins utilisé.
 Les relevés botaniques effectués sont comparés entre eux pour déterminer leurs degrés de similitude (ex : espèces toujours conjointement présentes dans un certain biotope), on arrive à agréger plusieurs relevés pour finalement former des unités phytosociologiques homogènes floristiquement. On peut ensuite comparer les groupes de relevés avec ceux de biotopes similaires situés dans des régions plus éloignées, ou proches mais entièrement différents.
-Classification phytosociologique des végétations
-Les phytosociologues du XXe siècle ont construit un système de classification hiérarchique (syntaxinomie) analogue à celui de la classification classique (idiotaxinomie). Les associations végétales forment l'unité de base, et sont regroupées par similarités dans des alliances. Les alliances les plus proches dans leur structure floristique sont groupées en ordres, eux-mêmes groupés en classes. Chaque niveau de cette hiérarchie est dénommée "syntaxon" (par analogie aux idiotaxons du système de classification des organismes).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Phytosociologie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phytosociologie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Phytosociologie systématique floristique - sociologie des plantes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Classification phytosociologique des végétations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les phytosociologues du XXe siècle ont construit un système de classification hiérarchique (syntaxinomie) analogue à celui de la classification classique (idiotaxinomie). Les associations végétales forment l'unité de base, et sont regroupées par similarités dans des alliances. Les alliances les plus proches dans leur structure floristique sont groupées en ordres, eux-mêmes groupés en classes. Chaque niveau de cette hiérarchie est dénommée "syntaxon" (par analogie aux idiotaxons du système de classification des organismes).
 Une association végétale est nommée à partir du ou des noms de genre d'une ou de deux espèces caractéristiques présentes, auxquelles on ajoute un suffixe (en gras ci-dessous) indiquant le niveau hiérarchique du syntaxon dans la classification :
 Classe (suffixe -etea) : Querco-Fagetea (forêts feuillues des climats tempérés dominées par les Chênes, Quercus et le Hêtre, Fagus) ;
 Ordre (suffixe -etalia) : Fagetalia (forêts feuillues des climats tempérées froides à Hêtre) ;
@@ -656,38 +711,6 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Phytosociologie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Phytosociologie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Classification physionomique des végétations</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une approche basée sur la physionomie des groupements végétaux existe aussi. Elle considère d'abord les types biologiques des espèces dominantes dans un lieu donné. L'unité considérée est la formation végétale, concept formulé dès 1838 par August Grisebach. Les formations sont insérées elles aussi dans un système hiérarchique, illustré ci-dessous par trois exemples :
-Ce modèle tend à être délaissé au profit du système de classification phytosociologique proprement dit, de nature floristique, car ce dernier détaille les différentes espèces présentes plutôt que de se référer principalement à la physionomie globale. La connaissance des espèces inclut la connaissance de la physionomie, alors que l'inverse n'est pas vrai.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
@@ -709,21 +732,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Intérêt de la phytosociologie en écologie</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La phytosociologie permet d'étudier les relations abiotiques des végétations avec le climat, les sols et la géomorphologie locale ainsi que les relations biotiques avec les autres communautés végétales, les communautés animales et les sociétés humaines. Ainsi, la reconnaissance des groupements végétaux révèle de manière plus précise les fonctionnements écologiques locaux, la bioindication des communautés étant l'intersection des valences écologiques de toutes les espèces les constituant.
-Cartographie des végétations
-La caractérisation des végétations repose sur des inventaires floristiques effectués selon des normes précises. L'objectif étant de décrire la diversité des végétations mondiales et de permettre la compréhension des liens fonctionnels entre les communautés de plantes et les milieux naturels ou artificiels.
-L'utilisation de cartes pour la représentation spatiale des unités phytosociologiques permet une étude précise des conditions écologiques du milieu et de la répartition des espèces végétales. Selon l'échelle, on choisira l'échelon approprié d'unité de végétation, et on le représentera sur les cartes : cartes phytosociologiques ou physionomiques, cartes des formations, des types de biotopes, des ressources forestières, des valeurs agronomiques, etc.
-Étude des indicateurs et des groupes écologiques
-La phytosociologie peut servir à la bioindication. Certaines plantes sont des "indicateurs biologiques" de certains types de terrains (acidiphile, calcaire, humide, sableux, etc.). Selon le système introduit par Heinz Ellenberg, le comportement écologique d'une espèce botanique est décrit par un indicateur comprenant de 9 à 12 classes pour chaque facteur écologique primordial. Ces indicateurs précisent certaines variables de l'environnement comme la lumière, la température, la continentalité, l'humidité du sol, le pH, la quantité de nutriments dans le sol, la salinité.
-Par "indication biologique" on doit entendre plusieurs niveaux possibles de bioindication : présence-absence qualitative, importance quantitative des populations, modifications physiologiques héréditaires, adaptations physiologiques temporaires.
-Phytosociologie et dynamique des végétations
-Sous le concept de dynamique des végétations on regroupe toutes les modifications quantitatives et qualitatives des associations végétales au cours du temps : les modifications saisonnières phénologiques, les fluctuations pluriannuelles de la végétation, les modifications cycliques, dues notamment aux invasions de parasites, les successions autogènes ou allogènes (séries de végétation).
-L'utilisation de la méthode phytosociologique à divers intervalles de temps sur un même site permet l'analyse des fluctuations ou de l'évolution de la végétation. Cette évolution peut par la suite être expliquée par l'effet de phénomènes internes (autogènes) ou externes (allogènes) à l'écosystème considéré. Ces phénomènes peuvent trouver leur origine dans des actions humaines, des changements climatiques, des cicatrisations, comme après un incendie, etc.).
+          <t>Classification physionomique des végétations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une approche basée sur la physionomie des groupements végétaux existe aussi. Elle considère d'abord les types biologiques des espèces dominantes dans un lieu donné. L'unité considérée est la formation végétale, concept formulé dès 1838 par August Grisebach. Les formations sont insérées elles aussi dans un système hiérarchique, illustré ci-dessous par trois exemples :
+Ce modèle tend à être délaissé au profit du système de classification phytosociologique proprement dit, de nature floristique, car ce dernier détaille les différentes espèces présentes plutôt que de se référer principalement à la physionomie globale. La connaissance des espèces inclut la connaissance de la physionomie, alors que l'inverse n'est pas vrai.
 </t>
         </is>
       </c>
@@ -749,12 +766,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Intérêt de la phytosociologie en sylviculture</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La phytosociologie est utilisée en sylviculture pour déterminer l'accroissement et ainsi prévoir les entretiens et récoltes. Elle permet également une meilleure sélection des essences afin d'éviter une mauvaise adéquation entre les conditions stationnelles et le peuplement.
+          <t>Intérêt de la phytosociologie en écologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phytosociologie permet d'étudier les relations abiotiques des végétations avec le climat, les sols et la géomorphologie locale ainsi que les relations biotiques avec les autres communautés végétales, les communautés animales et les sociétés humaines. Ainsi, la reconnaissance des groupements végétaux révèle de manière plus précise les fonctionnements écologiques locaux, la bioindication des communautés étant l'intersection des valences écologiques de toutes les espèces les constituant.
 </t>
         </is>
       </c>
@@ -780,12 +799,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Intérêt de la phytosociologie en agriculture</t>
+          <t>Intérêt de la phytosociologie en écologie</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">La phytosociologie est utilisée pour estimer la valeur pastorale d'un pâturage qui elle-même détermine la charge en bétail[6], c'est-à-dire le nombre de têtes de bétail que peut supporter un pâturage sans craindre une sur-exploitation.
+          <t>Cartographie des végétations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La caractérisation des végétations repose sur des inventaires floristiques effectués selon des normes précises. L'objectif étant de décrire la diversité des végétations mondiales et de permettre la compréhension des liens fonctionnels entre les communautés de plantes et les milieux naturels ou artificiels.
+L'utilisation de cartes pour la représentation spatiale des unités phytosociologiques permet une étude précise des conditions écologiques du milieu et de la répartition des espèces végétales. Selon l'échelle, on choisira l'échelon approprié d'unité de végétation, et on le représentera sur les cartes : cartes phytosociologiques ou physionomiques, cartes des formations, des types de biotopes, des ressources forestières, des valeurs agronomiques, etc.
 </t>
         </is>
       </c>
@@ -811,17 +837,235 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Intérêt de la phytosociologie en écologie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Étude des indicateurs et des groupes écologiques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phytosociologie peut servir à la bioindication. Certaines plantes sont des "indicateurs biologiques" de certains types de terrains (acidiphile, calcaire, humide, sableux, etc.). Selon le système introduit par Heinz Ellenberg, le comportement écologique d'une espèce botanique est décrit par un indicateur comprenant de 9 à 12 classes pour chaque facteur écologique primordial. Ces indicateurs précisent certaines variables de l'environnement comme la lumière, la température, la continentalité, l'humidité du sol, le pH, la quantité de nutriments dans le sol, la salinité.
+Par "indication biologique" on doit entendre plusieurs niveaux possibles de bioindication : présence-absence qualitative, importance quantitative des populations, modifications physiologiques héréditaires, adaptations physiologiques temporaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Phytosociologie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phytosociologie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Intérêt de la phytosociologie en écologie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Phytosociologie et dynamique des végétations</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous le concept de dynamique des végétations on regroupe toutes les modifications quantitatives et qualitatives des associations végétales au cours du temps : les modifications saisonnières phénologiques, les fluctuations pluriannuelles de la végétation, les modifications cycliques, dues notamment aux invasions de parasites, les successions autogènes ou allogènes (séries de végétation).
+L'utilisation de la méthode phytosociologique à divers intervalles de temps sur un même site permet l'analyse des fluctuations ou de l'évolution de la végétation. Cette évolution peut par la suite être expliquée par l'effet de phénomènes internes (autogènes) ou externes (allogènes) à l'écosystème considéré. Ces phénomènes peuvent trouver leur origine dans des actions humaines, des changements climatiques, des cicatrisations, comme après un incendie, etc.).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Phytosociologie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phytosociologie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Intérêt de la phytosociologie en sylviculture</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phytosociologie est utilisée en sylviculture pour déterminer l'accroissement et ainsi prévoir les entretiens et récoltes. Elle permet également une meilleure sélection des essences afin d'éviter une mauvaise adéquation entre les conditions stationnelles et le peuplement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Phytosociologie</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phytosociologie</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Intérêt de la phytosociologie en agriculture</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phytosociologie est utilisée pour estimer la valeur pastorale d'un pâturage qui elle-même détermine la charge en bétail, c'est-à-dire le nombre de têtes de bétail que peut supporter un pâturage sans craindre une sur-exploitation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Phytosociologie</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phytosociologie</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Les classes de végétations en France</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe plusieurs classifications des végétations, qui pour certaines définissent proprement des classes phytosociologiques, pour d'autres s'appuient sur ces classifications en envisageant une catégorisation plus large, comme Corine Biotope, qui «pour prendre en compte l’importance de la faune et le rôle des communautés dans le façonnement du paysage, et pour accorder une place convenable aux types d’habitat plus anthropogéniques ou zoogéniques, [a] incorporé une large proportion de références aux formes physiques, intégré des écosystèmes et des faciès phytosociologiquement non significatifs»[7].
-Classes phytosociologiques selon Philippe Julve
-Philippe Julve publie et mets à jour régulièrement son Catalogue des Milieux Naturels (CatMiNat)[8].
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe plusieurs classifications des végétations, qui pour certaines définissent proprement des classes phytosociologiques, pour d'autres s'appuient sur ces classifications en envisageant une catégorisation plus large, comme Corine Biotope, qui «pour prendre en compte l’importance de la faune et le rôle des communautés dans le façonnement du paysage, et pour accorder une place convenable aux types d’habitat plus anthropogéniques ou zoogéniques, [a] incorporé une large proportion de références aux formes physiques, intégré des écosystèmes et des faciès phytosociologiquement non significatifs».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Phytosociologie</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phytosociologie</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Les classes de végétations en France</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Classes phytosociologiques selon Philippe Julve</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Julve publie et mets à jour régulièrement son Catalogue des Milieux Naturels (CatMiNat).
 Le détail des classes et les tableaux de synthèses peuvent être téléchargés sur le site de Tela Botanica, projet phytosociologie ou visualisés sur le site e-veg.net.
-Première clef de détermination
-01/ : Eaux marines océaniques et littorales à végétation aquatique essentiellement algale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Phytosociologie</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phytosociologie</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Les classes de végétations en France</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Classes phytosociologiques selon Philippe Julve</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Première clef de détermination</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>01/ : Eaux marines océaniques et littorales à végétation aquatique essentiellement algale.
 02/ : Littoral maritime à végétation aérienne, supportant le sel, parfois épisodiquement submergée.
 03/ : Eaux continentales à sublittorales, douces à saumâtres, en nappes libres et affleurantes, des lacs, étangs, mares, fleuves et rivières, d'origines naturelles ou créés par l'homme.
 04/ : Zones humides plus ou moins amphibies, des bords de lacs, d'étangs, de rivières, sources et dépressions diverses, à végétation herbacée basse plus ou moins éparse, ne recouvrant pas totalement le sol.
@@ -836,9 +1080,47 @@
 13/ : Cultures, friches, coupes et clairières forestières à sols perturbés, lieux plus ou moins rudéralisés, et zones naturelles de caractères écologiques similaires (pieds de falaises, ourlets dunaires…). L'enrichissement trophique est lié aux animaux, aux actions de l'homme, à la fixation symbiotique d'azote, ou à la minéralisation active dans le sol consécutive aux éclaircies et aux remontées de nappe d'eau.
 14/ : Landes et garrigues à plantes vivaces ligneuses (sous-arbrisseaux chaméphytiques de quelques décimètres de hauteur).
 15/ : Haies arbustives, halliers, fruticées, maquis, matorrals, buissons, pré-manteaux et manteaux externes et de coupes forestières (lisières arbustives), souvent linéaires mais parfois en nappes spatiales, ou plus ou moins éclatés, constituées d’arbustes et d’arbrisseaux.
-16/ : Végétations arborescentes et herbacées intraforestières, des forêts, bois et bosquets arborescents. (voir aussi le 13/7 pour les coupes et clairières forestières plus ou moins eutrophisées).
-Seconde Clef de détermination
-01/ : Eaux marines océaniques et littorales à végétation aquatique essentiellement algale.
+16/ : Végétations arborescentes et herbacées intraforestières, des forêts, bois et bosquets arborescents. (voir aussi le 13/7 pour les coupes et clairières forestières plus ou moins eutrophisées).</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Phytosociologie</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phytosociologie</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Les classes de végétations en France</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Classes phytosociologiques selon Philippe Julve</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Seconde Clef de détermination</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>01/ : Eaux marines océaniques et littorales à végétation aquatique essentiellement algale.
 01/1 Algues marines, pélagiques, présentes en pleine eau dans une zone comprise entre 0 et 50 mètres de profondeur (zone épipélagique).
 01/2 Algues marines, pélagiques, présents en pleine eau dans une zone comprise entre 50 et 100 mètres de profondeur (zone mésopélagique).
 01/3 Organismes marins, pélagiques, présents en pleine eau dans une zone comprise entre 100 et 500 mètres de profondeur, au-dessus de l'étage bathyal supérieur (zone infrapélagique).
@@ -940,11 +1222,84 @@
 16/3 Associations arborescentes, généralement sempervirentes et dominées par des arbres feuillus sclérophylles, plus rarement par des conifères, thermo- et mésoméditerranéennes. [Pino halepensis - Quercetea ilicis coll.]
 16/4 Végétation herbacée vivace, le plus souvent intraforestière, plus ou moins adaptée à un ombrage relatif et à une humidité atmosphérique relativement élevée, de développement optimal généralement printanier. [Anemono nemorosae - Caricetea sylvaticae]
 16/5 Lianes grimpantes sur parois de falaises ou murs, épiphytes sur troncs d'arbres et d'arbustes. [Hederetea hederacei]
-16/6 Épiphytes de houppiers d'arbres ou d'arbustes, sur branches. [Viscetea albi]
-Les classes Corine Biotope
-L'article qui lui est consacré le rappelle, «Corine Biotope est une typologie des habitats naturels et semi-naturels présents sur le sol européen […]. Le programme a abouti en 1991 à la proposition d'une typologie arborescente à six niveaux maximum, basée sur la description de la végétation». Ci-après, les classes principales et les secondaires[9].
-Classes Corine primaires et secondaires
-1 - Habitats littoraux et halophiles
+16/6 Épiphytes de houppiers d'arbres ou d'arbustes, sur branches. [Viscetea albi]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Phytosociologie</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phytosociologie</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Les classes de végétations en France</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Les classes Corine Biotope</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'article qui lui est consacré le rappelle, «Corine Biotope est une typologie des habitats naturels et semi-naturels présents sur le sol européen […]. Le programme a abouti en 1991 à la proposition d'une typologie arborescente à six niveaux maximum, basée sur la description de la végétation». Ci-après, les classes principales et les secondaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Phytosociologie</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phytosociologie</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Les classes de végétations en France</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Les classes Corine Biotope</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Classes Corine primaires et secondaires</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1 - Habitats littoraux et halophiles
 11 - Mers et océans
 12 - Bras de mer
 13 - Estuaires et rivières tidales (soumises à marées)
@@ -986,7 +1341,7 @@
 64 - Dunes sableuses continentales
 65 - Grottes
 66 - Communautés des sites volcaniques
-8 - Terres agricoles et paysages artificiels[10].
+8 - Terres agricoles et paysages artificiels.
 81 - Prairies améliorées
 82 - Cultures
 83 - Vergers, bosquets et plantations d'arbres
@@ -995,11 +1350,45 @@
 86 - Villes, villages et sites industriels
 87 - Terrains en friche et terrains vagues
 88 - Mines et passages souterrains
-89 - Lagunes et réservoirs industriels, canaux
-Classes phytosociologiques selon le Prodrome des végétations de France
-Le Prodrome des végétation de France est une synthèse extensive et détaillée des connaissances scientifiques sur la végétation de la France métropolitaine. Ce projet, œuvre commune de plusieurs scientifiques au début du XXIe siècle, a fait l'objet de nombreuses publications.
-Une première version (souvent désignée sous le sigle « PVF1 ») a été publiée en 2004 par Bardat et al. et ne constituait qu'une simple liste des unités des la classification phytosociologique jusqu'au niveau de la sous-alliance[11],[12]. Le PVF1 reconnaissait 76 classes de végétation. 
-Une seconde version (baptisée « PVF2 ») est publiée depuis 2009 sous l'égide de la Société Française de Phytosociologie sous forme d'articles (en général un par classe phytosociologique) dans différents journaux scientifiques dont le Journal de Botanique de la Société Botanique de France, Documents Phytosociologiques ou encore Acta Botanica Gallica. Chaque article donne une description de la classe et détaille ses unités constituantes (ordres, alliances et associations). Des tableaux synthétiques pour les unitées supérieures ainsi que des références extensives sont données. Chaque association reconnue fait l'objet d'une fiche synthétique détaillée. En 2019 trente-cinq classes avaient fait l'objet d'une publication[13].
+89 - Lagunes et réservoirs industriels, canaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Phytosociologie</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phytosociologie</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Les classes de végétations en France</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Classes phytosociologiques selon le Prodrome des végétations de France</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Prodrome des végétation de France est une synthèse extensive et détaillée des connaissances scientifiques sur la végétation de la France métropolitaine. Ce projet, œuvre commune de plusieurs scientifiques au début du XXIe siècle, a fait l'objet de nombreuses publications.
+Une première version (souvent désignée sous le sigle « PVF1 ») a été publiée en 2004 par Bardat et al. et ne constituait qu'une simple liste des unités des la classification phytosociologique jusqu'au niveau de la sous-alliance,. Le PVF1 reconnaissait 76 classes de végétation. 
+Une seconde version (baptisée « PVF2 ») est publiée depuis 2009 sous l'égide de la Société Française de Phytosociologie sous forme d'articles (en général un par classe phytosociologique) dans différents journaux scientifiques dont le Journal de Botanique de la Société Botanique de France, Documents Phytosociologiques ou encore Acta Botanica Gallica. Chaque article donne une description de la classe et détaille ses unités constituantes (ordres, alliances et associations). Des tableaux synthétiques pour les unitées supérieures ainsi que des références extensives sont données. Chaque association reconnue fait l'objet d'une fiche synthétique détaillée. En 2019 trente-cinq classes avaient fait l'objet d'une publication.
 </t>
         </is>
       </c>
